--- a/有好货页面/id_1908021/dailyShops/需求表格.xlsx
+++ b/有好货页面/id_1908021/dailyShops/需求表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 repository\01 github\05 geek-fontend\Front-end\有好货页面\id_1908021\dailyShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7BFECE-91FE-4915-801D-B835EE15B72B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE01A7E-74B5-462B-9C29-64EFF2FF02F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>页面</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">

--- a/有好货页面/id_1908021/dailyShops/需求表格.xlsx
+++ b/有好货页面/id_1908021/dailyShops/需求表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 repository\01 github\05 geek-fontend\Front-end\有好货页面\id_1908021\dailyShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE01A7E-74B5-462B-9C29-64EFF2FF02F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D138F49-664B-40A3-885C-1393AC0591C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" activeCellId="1" sqref="E4 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,10 +514,10 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -548,7 +548,7 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">

--- a/有好货页面/id_1908021/dailyShops/需求表格.xlsx
+++ b/有好货页面/id_1908021/dailyShops/需求表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 repository\01 github\05 geek-fontend\Front-end\有好货页面\id_1908021\dailyShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D138F49-664B-40A3-885C-1393AC0591C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25E58-3152-4B58-92FF-DAE66F177C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="1" sqref="E4 E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -573,7 +573,7 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/有好货页面/id_1908021/dailyShops/需求表格.xlsx
+++ b/有好货页面/id_1908021/dailyShops/需求表格.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 repository\01 github\05 geek-fontend\Front-end\有好货页面\id_1908021\dailyShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25E58-3152-4B58-92FF-DAE66F177C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47C800-DAA6-44CF-BD46-D9CA1F4CEEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="接口" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>页面</t>
   </si>
@@ -109,13 +109,855 @@
   </si>
   <si>
     <t>页面3</t>
+  </si>
+  <si>
+    <t>https://static001.geekbang.org/univer/classes/js_dev/data/getInterestingPageDataTypeSuprise</t>
+  </si>
+  <si>
+    <t>{
+    "interestingShops": [
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/big3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/6.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/5.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/big2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/4.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/big1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://static001.geekbang.org/univer/classes/js_dev/data/getInterestingPageDataTypeAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "interestingShops": [
+        {
+            "name":"RINATE",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/big1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"ALIMAMA",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"ALIbaba",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/big2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"极客时间旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"极客大学旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/4.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"前端旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/big3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"算法旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"infoQ官方旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_all/6.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://static001.geekbang.org/univer/classes/js_dev/data/getInterestingPageDataTypeUnexpect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://static001.geekbang.org/univer/classes/js_dev/data/getNewPageData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://static001.geekbang.org/univer/classes/js_dev/data/getRecommendationPageData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "focusData": [
+        {
+            "image" : "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/banner1.jpg",
+            "url":"https://time.geekbang.org/column/intro/100023201"
+        },
+        {
+            "image":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/banner2.jpg",
+            "url":"https://time.geekbang.org/column/intro/100023201"
+        },
+        {
+            "image":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/banner3.jpg",
+            "url":"https://time.geekbang.org/column/intro/100023201"
+        }
+    ],
+    "mostFavourateShops": [
+        {
+            "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极客时间旗舰店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "promotion":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业优质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "fans":"20241111",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/shop_logo1.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乔丹旗舰店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "promotion":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业优质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "fans":"20241111",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/shop_logo2.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/4.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        }
+    ],
+    "recommendedShops": [
+        {
+            "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极客时间旗舰店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "promotion":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业优质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "fans":"20241111",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/shop_logo3.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/big1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/5.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/6.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极客大学旗舰店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "promotion":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业优质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "fans":"20241111",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/shop_logo4.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/big2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/7.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/8.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"infoQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官方旗舰店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "promotion":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业优质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+            "fans":"20241111",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/shop_logo5.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/big3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/9.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/recommendation/10.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+    "interestingShops": [
+        {
+            "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/big3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/6.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/5.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/big2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/4.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/3.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/big1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/2.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"鳗鱼皇后旗舰店",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/interestingShops_unexpected/1.jpg",
+                    "url":"https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        }
+    ]
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "newShops": [
+        {
+            "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>极客时间旗舰店",
+            "promotion":"科技风 行业优质",
+            "fans":"20241111",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/newShops/shop_logo1.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/newShops/1.jpg",
+                    "url": "https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/newShops/2.jpg",
+                    "url": "https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"极客大学天猫店",
+            "promotion":"让优秀的人一起学习",
+            "fans": "7774689",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/newShops/shop_logo2.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/newShops/3.jpg",
+                    "url": "https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/newShops/4.jpg",
+                    "url": "https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        },
+        {
+            "name":"InfoQ官方旗舰店",
+            "promotion":"我是小Q 欢迎你们",
+            "fans": "2078437",
+            "icon":"https://static001.geekbang.org/univer/classes/js_dev/static/newShops/shop_logo3.jpg",
+            "level": "5",
+            "url":"https://time.geekbang.org/column/intro/100023201",
+            "items": [
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/newShops/5.jpg",
+                    "url": "https://time.geekbang.org/column/intro/100023201"
+                },
+                {
+                    "image": "https://static001.geekbang.org/univer/classes/js_dev/static/newShops/6.jpg",
+                    "url": "https://time.geekbang.org/column/intro/100023201"
+                }
+            ]
+        }
+    ]
+}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +967,43 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -154,15 +1033,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,10 +1379,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -490,7 +1392,7 @@
     <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +1409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -521,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -535,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -561,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -569,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -577,15 +1479,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -598,4 +1500,439 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CCB40F-91C0-4B1B-921C-85C4923DDDD2}">
+  <dimension ref="A1:E126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="5" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{758014FA-5BE4-454F-8218-A3F4B403BDD3}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{16F99E43-E726-47FD-B94B-5DEEBAB1617C}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{525AE7EC-5EED-4E9B-8844-E39021840C24}"/>
+    <hyperlink ref="E1" r:id="rId4" xr:uid="{0652B2D5-80C3-4C1A-96C6-0D0474D2D135}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/有好货页面/id_1908021/dailyShops/需求表格.xlsx
+++ b/有好货页面/id_1908021/dailyShops/需求表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 repository\01 github\05 geek-fontend\Front-end\有好货页面\id_1908021\dailyShops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47C800-DAA6-44CF-BD46-D9CA1F4CEEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879873D-C219-441A-9769-3FCC453D4862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1399,13 +1399,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
